--- a/기획서/Item Table.xlsx
+++ b/기획서/Item Table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\addmin\Desktop\Unity\LCBD\기획서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CD953E8-F792-4D90-8078-27F341825E37}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8D28B7F-231F-41E4-BFC4-C67012BB1BBE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CF8D6227-ACBF-482D-9E34-FA8B4846D78F}"/>
+    <workbookView xWindow="2685" yWindow="2895" windowWidth="20190" windowHeight="11325" xr2:uid="{CF8D6227-ACBF-482D-9E34-FA8B4846D78F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -61,24 +61,6 @@
     <t>goods</t>
   </si>
   <si>
-    <t>infancy</t>
-  </si>
-  <si>
-    <t>childhood</t>
-  </si>
-  <si>
-    <t>adolescence</t>
-  </si>
-  <si>
-    <t>adulthood</t>
-  </si>
-  <si>
-    <t>old_age</t>
-  </si>
-  <si>
-    <t>all_ages</t>
-  </si>
-  <si>
     <t>item_name</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -260,14 +242,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>offense_power</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vitality</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>effect_info</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -276,10 +250,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>stiffness_resistance</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>range</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -292,10 +262,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>invincibility</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ending_key</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -341,6 +307,37 @@
   <si>
     <t>once</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>baby</t>
+  </si>
+  <si>
+    <t>chlid</t>
+  </si>
+  <si>
+    <t>young</t>
+  </si>
+  <si>
+    <t>adult</t>
+  </si>
+  <si>
+    <t>old</t>
+  </si>
+  <si>
+    <t>all</t>
+  </si>
+  <si>
+    <t>unbeatable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attack</t>
+  </si>
+  <si>
+    <t>health</t>
+  </si>
+  <si>
+    <t>stamina</t>
   </si>
 </sst>
 </file>
@@ -806,8 +803,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C14DBF2-6983-4963-98E1-979BE768D452}">
   <dimension ref="A1:L48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -828,7 +825,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -840,25 +837,25 @@
         <v>3</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="J1" s="7" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="L1" s="7" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -866,7 +863,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>6</v>
@@ -875,25 +872,25 @@
         <v>7</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>11</v>
+        <v>85</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="J2" s="6">
         <v>0</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="L2" s="9">
         <v>0</v>
@@ -904,7 +901,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>5</v>
@@ -913,25 +910,25 @@
         <v>7</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>11</v>
+        <v>85</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="J3" s="6">
         <v>0</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="L3" s="9">
         <v>0</v>
@@ -942,7 +939,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>5</v>
@@ -951,25 +948,25 @@
         <v>7</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>11</v>
+        <v>85</v>
       </c>
       <c r="F4" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="H4" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="G4" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>71</v>
-      </c>
       <c r="I4" s="3" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J4" s="3">
         <v>2</v>
       </c>
       <c r="K4" s="9" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="L4" s="9">
         <v>0</v>
@@ -980,7 +977,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>5</v>
@@ -989,25 +986,25 @@
         <v>7</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>11</v>
+        <v>85</v>
       </c>
       <c r="F5" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="H5" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="G5" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="H5" s="9" t="s">
-        <v>71</v>
-      </c>
       <c r="I5" s="4" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J5" s="4">
         <v>1</v>
       </c>
       <c r="K5" s="9" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="L5" s="9">
         <v>0</v>
@@ -1018,7 +1015,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>4</v>
@@ -1027,25 +1024,25 @@
         <v>7</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>12</v>
+        <v>86</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="J6" s="6">
         <v>0</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="L6" s="9">
         <v>0</v>
@@ -1056,7 +1053,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>6</v>
@@ -1065,25 +1062,25 @@
         <v>7</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>12</v>
+        <v>86</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="J7" s="6">
         <v>0</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="L7" s="9">
         <v>0</v>
@@ -1094,7 +1091,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>5</v>
@@ -1103,25 +1100,25 @@
         <v>7</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>12</v>
+        <v>86</v>
       </c>
       <c r="F8" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="H8" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="G8" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="H8" s="9" t="s">
-        <v>71</v>
-      </c>
       <c r="I8" s="3" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J8" s="3">
         <v>3</v>
       </c>
       <c r="K8" s="9" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="L8" s="9">
         <v>0</v>
@@ -1132,7 +1129,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>5</v>
@@ -1141,25 +1138,25 @@
         <v>7</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>12</v>
+        <v>86</v>
       </c>
       <c r="F9" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="H9" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="G9" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="H9" s="9" t="s">
-        <v>71</v>
-      </c>
       <c r="I9" s="4" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J9" s="4">
         <v>2</v>
       </c>
       <c r="K9" s="9" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="L9" s="9">
         <v>0</v>
@@ -1170,7 +1167,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>5</v>
@@ -1179,25 +1176,25 @@
         <v>7</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>13</v>
+        <v>87</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="J10" s="6">
         <v>0</v>
       </c>
       <c r="K10" s="6" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="L10" s="9">
         <v>0</v>
@@ -1208,7 +1205,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>4</v>
@@ -1217,25 +1214,25 @@
         <v>7</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>13</v>
+        <v>87</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="J11" s="6">
         <v>0</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="L11" s="9">
         <v>0</v>
@@ -1246,7 +1243,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>4</v>
@@ -1255,25 +1252,25 @@
         <v>7</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>13</v>
+        <v>87</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="J12" s="6">
         <v>0</v>
       </c>
       <c r="K12" s="6" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="L12" s="9">
         <v>0</v>
@@ -1284,7 +1281,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>6</v>
@@ -1293,25 +1290,25 @@
         <v>7</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>13</v>
+        <v>87</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="J13" s="6">
         <v>0</v>
       </c>
       <c r="K13" s="6" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="L13" s="9">
         <v>0</v>
@@ -1322,7 +1319,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>5</v>
@@ -1331,25 +1328,25 @@
         <v>7</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>14</v>
+        <v>88</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="J14" s="6">
         <v>0</v>
       </c>
       <c r="K14" s="6" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="L14" s="9">
         <v>0</v>
@@ -1360,7 +1357,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>5</v>
@@ -1369,25 +1366,25 @@
         <v>7</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>14</v>
+        <v>88</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="J15" s="6">
         <v>0</v>
       </c>
       <c r="K15" s="6" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="L15" s="9">
         <v>0</v>
@@ -1398,7 +1395,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>5</v>
@@ -1407,25 +1404,25 @@
         <v>7</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>14</v>
+        <v>88</v>
       </c>
       <c r="F16" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="H16" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="G16" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="H16" s="9" t="s">
-        <v>71</v>
-      </c>
       <c r="I16" s="3" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J16" s="3">
         <v>4</v>
       </c>
       <c r="K16" s="9" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="L16" s="9">
         <v>0</v>
@@ -1436,7 +1433,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>5</v>
@@ -1445,25 +1442,25 @@
         <v>7</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>14</v>
+        <v>88</v>
       </c>
       <c r="F17" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="H17" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="G17" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="H17" s="9" t="s">
-        <v>71</v>
-      </c>
       <c r="I17" s="4" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J17" s="4">
         <v>3</v>
       </c>
       <c r="K17" s="9" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="L17" s="9">
         <v>0</v>
@@ -1474,7 +1471,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>5</v>
@@ -1483,25 +1480,25 @@
         <v>7</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>10</v>
+        <v>84</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="I18" s="6" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="J18" s="6">
         <v>0</v>
       </c>
       <c r="K18" s="6" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="L18" s="9">
         <v>0</v>
@@ -1512,7 +1509,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>6</v>
@@ -1521,25 +1518,25 @@
         <v>7</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>10</v>
+        <v>84</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="J19" s="6">
         <v>0</v>
       </c>
       <c r="K19" s="6" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="L19" s="9">
         <v>0</v>
@@ -1550,7 +1547,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>5</v>
@@ -1559,25 +1556,25 @@
         <v>7</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>11</v>
+        <v>85</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="I20" s="6" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="J20" s="6">
         <v>0</v>
       </c>
       <c r="K20" s="6" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="L20" s="9">
         <v>0</v>
@@ -1588,7 +1585,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>6</v>
@@ -1597,25 +1594,25 @@
         <v>7</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>11</v>
+        <v>85</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="H21" s="10" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J21" s="3">
         <v>0.3</v>
       </c>
       <c r="K21" s="9" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="L21" s="9">
         <v>0</v>
@@ -1626,7 +1623,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>5</v>
@@ -1635,25 +1632,25 @@
         <v>7</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>12</v>
+        <v>86</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="I22" s="6" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="J22" s="6">
         <v>0</v>
       </c>
       <c r="K22" s="6" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="L22" s="9">
         <v>0</v>
@@ -1664,7 +1661,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>6</v>
@@ -1673,25 +1670,25 @@
         <v>7</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>12</v>
+        <v>86</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="H23" s="9" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J23" s="4">
         <v>0.2</v>
       </c>
       <c r="K23" s="9" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="L23" s="9">
         <v>0</v>
@@ -1702,7 +1699,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>6</v>
@@ -1711,25 +1708,25 @@
         <v>7</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>13</v>
+        <v>87</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="I24" s="6" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="J24" s="6">
         <v>0</v>
       </c>
       <c r="K24" s="6" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="L24" s="9">
         <v>0</v>
@@ -1740,7 +1737,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>6</v>
@@ -1749,25 +1746,25 @@
         <v>7</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>13</v>
+        <v>87</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="I25" s="6" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="J25" s="6">
         <v>0</v>
       </c>
       <c r="K25" s="6" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="L25" s="9">
         <v>0</v>
@@ -1778,7 +1775,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>4</v>
@@ -1787,25 +1784,25 @@
         <v>7</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>14</v>
+        <v>88</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="I26" s="6" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="J26" s="6">
         <v>0</v>
       </c>
       <c r="K26" s="6" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="L26" s="9">
         <v>0</v>
@@ -1816,7 +1813,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>5</v>
@@ -1825,25 +1822,25 @@
         <v>7</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>14</v>
+        <v>88</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="H27" s="6" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="I27" s="6" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="J27" s="6">
         <v>0</v>
       </c>
       <c r="K27" s="6" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="L27" s="9">
         <v>0</v>
@@ -1854,7 +1851,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>5</v>
@@ -1863,25 +1860,25 @@
         <v>7</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>15</v>
+        <v>89</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="H28" s="9" t="s">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J28" s="3">
         <v>10</v>
       </c>
       <c r="K28" s="9" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="L28" s="9">
         <v>0</v>
@@ -1892,7 +1889,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>5</v>
@@ -1901,25 +1898,25 @@
         <v>7</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>15</v>
+        <v>89</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="H29" s="9" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J29" s="4">
         <v>0.6</v>
       </c>
       <c r="K29" s="9" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="L29" s="9">
         <v>15</v>
@@ -1930,7 +1927,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>6</v>
@@ -1939,25 +1936,25 @@
         <v>7</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>15</v>
+        <v>89</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="H30" s="9" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J30" s="4">
         <v>3</v>
       </c>
       <c r="K30" s="9" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="L30" s="9">
         <v>15</v>
@@ -1968,7 +1965,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>5</v>
@@ -1977,25 +1974,25 @@
         <v>7</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>15</v>
+        <v>89</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="G31" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="H31" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="H31" s="9" t="s">
-        <v>79</v>
-      </c>
       <c r="I31" s="4" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J31" s="4">
         <v>2</v>
       </c>
       <c r="K31" s="9" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="L31" s="9">
         <v>15</v>
@@ -2006,7 +2003,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>5</v>
@@ -2015,25 +2012,25 @@
         <v>7</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>15</v>
+        <v>89</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="H32" s="9" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J32" s="4">
         <v>0.4</v>
       </c>
       <c r="K32" s="9" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="L32" s="9">
         <v>15</v>
@@ -2044,7 +2041,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>5</v>
@@ -2053,25 +2050,25 @@
         <v>7</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>15</v>
+        <v>89</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="G33" s="6" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="H33" s="9" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="I33" s="4" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J33" s="4">
         <v>2</v>
       </c>
       <c r="K33" s="9" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="L33" s="9">
         <v>15</v>
@@ -2082,7 +2079,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>5</v>
@@ -2091,25 +2088,25 @@
         <v>7</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>15</v>
+        <v>89</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="H34" s="10" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="I34" s="4" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J34" s="4">
         <v>0.4</v>
       </c>
       <c r="K34" s="9" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="L34" s="9">
         <v>15</v>
@@ -2120,7 +2117,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>5</v>
@@ -2129,25 +2126,25 @@
         <v>7</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>15</v>
+        <v>89</v>
       </c>
       <c r="F35" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="H35" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="G35" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="H35" s="9" t="s">
-        <v>71</v>
-      </c>
       <c r="I35" s="4" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J35" s="4">
         <v>0.4</v>
       </c>
       <c r="K35" s="9" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="L35" s="9">
         <v>15</v>
@@ -2158,7 +2155,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>6</v>
@@ -2167,25 +2164,25 @@
         <v>7</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>15</v>
+        <v>89</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="H36" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="I36" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="I36" s="3" t="s">
-        <v>86</v>
-      </c>
       <c r="J36" s="3">
         <v>0</v>
       </c>
       <c r="K36" s="9" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="L36" s="9">
         <v>15</v>
@@ -2196,7 +2193,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>4</v>
@@ -2205,25 +2202,25 @@
         <v>7</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>15</v>
+        <v>89</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H37" s="9" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="I37" s="4" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J37" s="4">
         <v>0</v>
       </c>
       <c r="K37" s="9" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="L37" s="9">
         <v>10</v>
@@ -2234,7 +2231,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>4</v>
@@ -2243,25 +2240,25 @@
         <v>8</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>15</v>
+        <v>89</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="H38" s="9" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="I38" s="4" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="J38" s="4">
         <v>0</v>
       </c>
       <c r="K38" s="4" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="L38" s="9">
         <v>0</v>
@@ -2272,7 +2269,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>4</v>
@@ -2281,25 +2278,25 @@
         <v>8</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>10</v>
+        <v>84</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="G39" s="9" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="H39" s="9" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="I39" s="9" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="J39" s="9">
         <v>0</v>
       </c>
       <c r="K39" s="9" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="L39" s="9">
         <v>0</v>
@@ -2310,7 +2307,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>4</v>
@@ -2319,25 +2316,25 @@
         <v>8</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>11</v>
+        <v>85</v>
       </c>
       <c r="F40" s="6" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="G40" s="9" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="H40" s="9" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="I40" s="9" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="J40" s="9">
         <v>0</v>
       </c>
       <c r="K40" s="9" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="L40" s="9">
         <v>0</v>
@@ -2348,7 +2345,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>4</v>
@@ -2357,25 +2354,25 @@
         <v>8</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>12</v>
+        <v>86</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="G41" s="9" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="H41" s="9" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="I41" s="9" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="J41" s="9">
         <v>0</v>
       </c>
       <c r="K41" s="9" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="L41" s="9">
         <v>0</v>
@@ -2386,7 +2383,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>4</v>
@@ -2395,25 +2392,25 @@
         <v>8</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>13</v>
+        <v>87</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="G42" s="9" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="H42" s="9" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="I42" s="9" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="J42" s="9">
         <v>0</v>
       </c>
       <c r="K42" s="9" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="L42" s="9">
         <v>0</v>
@@ -2424,7 +2421,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>4</v>
@@ -2433,25 +2430,25 @@
         <v>8</v>
       </c>
       <c r="E43" s="9" t="s">
-        <v>14</v>
+        <v>88</v>
       </c>
       <c r="F43" s="6" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="G43" s="9" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="H43" s="9" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="I43" s="9" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="J43" s="9">
         <v>0</v>
       </c>
       <c r="K43" s="9" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="L43" s="9">
         <v>0</v>
@@ -2462,7 +2459,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>5</v>
@@ -2471,25 +2468,25 @@
         <v>9</v>
       </c>
       <c r="E44" s="9" t="s">
-        <v>15</v>
+        <v>89</v>
       </c>
       <c r="F44" s="6" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="H44" s="9" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="I44" s="3" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J44" s="3">
         <v>0</v>
       </c>
       <c r="K44" s="9" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="L44" s="9">
         <v>0</v>
@@ -2500,7 +2497,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>5</v>
@@ -2509,25 +2506,25 @@
         <v>9</v>
       </c>
       <c r="E45" s="9" t="s">
-        <v>15</v>
+        <v>89</v>
       </c>
       <c r="F45" s="6" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="H45" s="9" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="I45" s="4" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="J45" s="4">
         <v>1</v>
       </c>
       <c r="K45" s="9" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="L45" s="9">
         <v>0</v>
@@ -2538,7 +2535,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>5</v>
@@ -2547,25 +2544,25 @@
         <v>9</v>
       </c>
       <c r="E46" s="9" t="s">
-        <v>15</v>
+        <v>89</v>
       </c>
       <c r="F46" s="6" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="H46" s="9" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="I46" s="4" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="J46" s="4">
         <v>10</v>
       </c>
       <c r="K46" s="9" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="L46" s="9">
         <v>0</v>
@@ -2576,7 +2573,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>5</v>
@@ -2585,25 +2582,25 @@
         <v>9</v>
       </c>
       <c r="E47" s="9" t="s">
-        <v>15</v>
+        <v>89</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="H47" s="9" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="I47" s="4" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="J47" s="4">
         <v>20</v>
       </c>
       <c r="K47" s="9" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="L47" s="9">
         <v>0</v>
@@ -2614,7 +2611,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>6</v>
@@ -2623,25 +2620,25 @@
         <v>9</v>
       </c>
       <c r="E48" s="9" t="s">
-        <v>15</v>
+        <v>89</v>
       </c>
       <c r="F48" s="6" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="H48" s="9" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="I48" s="4" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="J48" s="4">
         <v>40</v>
       </c>
       <c r="K48" s="9" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="L48" s="9">
         <v>0</v>

--- a/기획서/Item Table.xlsx
+++ b/기획서/Item Table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\addmin\Desktop\Unity\LCBD\기획서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8D28B7F-231F-41E4-BFC4-C67012BB1BBE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6FBB6CB-79ED-4177-824A-FB2D954A0FD8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2685" yWindow="2895" windowWidth="20190" windowHeight="11325" xr2:uid="{CF8D6227-ACBF-482D-9E34-FA8B4846D78F}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="20190" windowHeight="11325" xr2:uid="{CF8D6227-ACBF-482D-9E34-FA8B4846D78F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -803,8 +803,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C14DBF2-6983-4963-98E1-979BE768D452}">
   <dimension ref="A1:L48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/기획서/Item Table.xlsx
+++ b/기획서/Item Table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\addmin\Desktop\Unity\LCBD\기획서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6FBB6CB-79ED-4177-824A-FB2D954A0FD8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E901EAC1-0836-425C-A948-A5471138AAC0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="20190" windowHeight="11325" xr2:uid="{CF8D6227-ACBF-482D-9E34-FA8B4846D78F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CF8D6227-ACBF-482D-9E34-FA8B4846D78F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="103">
   <si>
     <t>idx</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -338,6 +338,42 @@
   </si>
   <si>
     <t>stamina</t>
+  </si>
+  <si>
+    <t>구강기 인격조각</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>항문기 인격조각</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>남근기 인격조각</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>잠복기 인격조각</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>성장기 인격조각</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>생식기 인격조각</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unique</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item_price</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -801,16 +837,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C14DBF2-6983-4963-98E1-979BE768D452}">
-  <dimension ref="A1:L48"/>
+  <dimension ref="A1:M54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+    <sheetView tabSelected="1" topLeftCell="B29" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="M56" sqref="M56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="12.25" customWidth="1"/>
+    <col min="2" max="2" width="13.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
     <col min="4" max="4" width="11.625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.625" style="8" bestFit="1" customWidth="1"/>
@@ -818,9 +854,10 @@
     <col min="7" max="7" width="15.25" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="20" style="8" bestFit="1" customWidth="1"/>
     <col min="9" max="12" width="20" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -857,8 +894,11 @@
       <c r="L1" s="7" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M1" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -895,8 +935,11 @@
       <c r="L2" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M2" s="6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -933,8 +976,11 @@
       <c r="L3" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M3" s="6">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -971,8 +1017,11 @@
       <c r="L4" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M4" s="6">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -1009,8 +1058,11 @@
       <c r="L5" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M5" s="6">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -1047,8 +1099,11 @@
       <c r="L6" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M6" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -1085,8 +1140,11 @@
       <c r="L7" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M7" s="6">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -1123,8 +1181,11 @@
       <c r="L8" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M8" s="6">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -1161,8 +1222,11 @@
       <c r="L9" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M9" s="6">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="6">
         <v>9</v>
       </c>
@@ -1199,8 +1263,11 @@
       <c r="L10" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M10" s="6">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="6">
         <v>10</v>
       </c>
@@ -1237,8 +1304,11 @@
       <c r="L11" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M11" s="6">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="6">
         <v>11</v>
       </c>
@@ -1275,8 +1345,11 @@
       <c r="L12" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M12" s="6">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="6">
         <v>12</v>
       </c>
@@ -1313,8 +1386,11 @@
       <c r="L13" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M13" s="6">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="6">
         <v>13</v>
       </c>
@@ -1351,8 +1427,11 @@
       <c r="L14" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M14" s="6">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="6">
         <v>14</v>
       </c>
@@ -1389,8 +1468,11 @@
       <c r="L15" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M15" s="6">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="6">
         <v>15</v>
       </c>
@@ -1427,8 +1509,11 @@
       <c r="L16" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M16" s="6">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="6">
         <v>16</v>
       </c>
@@ -1465,8 +1550,11 @@
       <c r="L17" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M17" s="6">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="6">
         <v>17</v>
       </c>
@@ -1503,8 +1591,11 @@
       <c r="L18" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M18" s="6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="6">
         <v>18</v>
       </c>
@@ -1541,8 +1632,11 @@
       <c r="L19" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M19" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="6">
         <v>19</v>
       </c>
@@ -1579,8 +1673,11 @@
       <c r="L20" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M20" s="6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="6">
         <v>20</v>
       </c>
@@ -1617,8 +1714,11 @@
       <c r="L21" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M21" s="6">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="6">
         <v>21</v>
       </c>
@@ -1655,8 +1755,11 @@
       <c r="L22" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M22" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="6">
         <v>22</v>
       </c>
@@ -1693,8 +1796,11 @@
       <c r="L23" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M23" s="6">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="6">
         <v>23</v>
       </c>
@@ -1731,8 +1837,11 @@
       <c r="L24" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M24" s="6">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="6">
         <v>24</v>
       </c>
@@ -1769,8 +1878,11 @@
       <c r="L25" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M25" s="6">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="6">
         <v>25</v>
       </c>
@@ -1807,8 +1919,11 @@
       <c r="L26" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M26" s="6">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="6">
         <v>26</v>
       </c>
@@ -1845,8 +1960,11 @@
       <c r="L27" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M27" s="6">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="6">
         <v>27</v>
       </c>
@@ -1883,8 +2001,11 @@
       <c r="L28" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M28" s="6">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="6">
         <v>28</v>
       </c>
@@ -1921,8 +2042,11 @@
       <c r="L29" s="9">
         <v>15</v>
       </c>
-    </row>
-    <row r="30" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M29" s="6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="6">
         <v>29</v>
       </c>
@@ -1959,8 +2083,11 @@
       <c r="L30" s="9">
         <v>15</v>
       </c>
-    </row>
-    <row r="31" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M30" s="6">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="6">
         <v>30</v>
       </c>
@@ -1997,8 +2124,11 @@
       <c r="L31" s="9">
         <v>15</v>
       </c>
-    </row>
-    <row r="32" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M31" s="6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="6">
         <v>31</v>
       </c>
@@ -2035,8 +2165,11 @@
       <c r="L32" s="9">
         <v>15</v>
       </c>
-    </row>
-    <row r="33" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M32" s="6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="6">
         <v>32</v>
       </c>
@@ -2073,8 +2206,11 @@
       <c r="L33" s="9">
         <v>15</v>
       </c>
-    </row>
-    <row r="34" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M33" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="6">
         <v>33</v>
       </c>
@@ -2111,8 +2247,11 @@
       <c r="L34" s="9">
         <v>15</v>
       </c>
-    </row>
-    <row r="35" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M34" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="6">
         <v>34</v>
       </c>
@@ -2149,8 +2288,11 @@
       <c r="L35" s="9">
         <v>15</v>
       </c>
-    </row>
-    <row r="36" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M35" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="6">
         <v>35</v>
       </c>
@@ -2187,8 +2329,11 @@
       <c r="L36" s="9">
         <v>15</v>
       </c>
-    </row>
-    <row r="37" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M36" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="6">
         <v>36</v>
       </c>
@@ -2225,8 +2370,11 @@
       <c r="L37" s="9">
         <v>10</v>
       </c>
-    </row>
-    <row r="38" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M37" s="6">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="6">
         <v>37</v>
       </c>
@@ -2263,8 +2411,11 @@
       <c r="L38" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M38" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="6">
         <v>38</v>
       </c>
@@ -2301,8 +2452,11 @@
       <c r="L39" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M39" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="6">
         <v>39</v>
       </c>
@@ -2339,8 +2493,11 @@
       <c r="L40" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M40" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="6">
         <v>40</v>
       </c>
@@ -2377,8 +2534,11 @@
       <c r="L41" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M41" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="6">
         <v>41</v>
       </c>
@@ -2415,8 +2575,11 @@
       <c r="L42" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M42" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="6">
         <v>42</v>
       </c>
@@ -2453,8 +2616,11 @@
       <c r="L43" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M43" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="6">
         <v>43</v>
       </c>
@@ -2491,8 +2657,11 @@
       <c r="L44" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M44" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="6">
         <v>44</v>
       </c>
@@ -2529,8 +2698,11 @@
       <c r="L45" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M45" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="6">
         <v>45</v>
       </c>
@@ -2567,8 +2739,11 @@
       <c r="L46" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M46" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="6">
         <v>46</v>
       </c>
@@ -2605,8 +2780,11 @@
       <c r="L47" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M47" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="6">
         <v>47</v>
       </c>
@@ -2641,6 +2819,255 @@
         <v>83</v>
       </c>
       <c r="L48" s="9">
+        <v>0</v>
+      </c>
+      <c r="M48" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="6">
+        <v>48</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="E49" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="F49" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="G49" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="H49" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="I49" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="J49" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="K49" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="L49" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="M49" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="6">
+        <v>49</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="E50" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="F50" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="G50" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="H50" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="I50" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="J50" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="K50" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="L50" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="M50" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="6">
+        <v>50</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="E51" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="F51" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="G51" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="H51" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="I51" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="J51" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="K51" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="L51" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="M51" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="6">
+        <v>51</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="E52" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="F52" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="G52" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="H52" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="I52" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="J52" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="K52" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="L52" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="M52" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="6">
+        <v>52</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="E53" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="F53" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="G53" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="H53" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="I53" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="J53" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="K53" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="L53" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="M53" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="6">
+        <v>53</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="E54" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="F54" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="G54" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="H54" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="I54" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="J54" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="K54" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="L54" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="M54" s="6">
         <v>0</v>
       </c>
     </row>

--- a/기획서/Item Table.xlsx
+++ b/기획서/Item Table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\addmin\Desktop\Unity\LCBD\기획서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E901EAC1-0836-425C-A948-A5471138AAC0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35DA5BA7-50D1-4511-BCCF-047B018BEE1C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CF8D6227-ACBF-482D-9E34-FA8B4846D78F}"/>
+    <workbookView xWindow="3390" yWindow="2100" windowWidth="18810" windowHeight="12720" xr2:uid="{CF8D6227-ACBF-482D-9E34-FA8B4846D78F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -839,20 +839,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C14DBF2-6983-4963-98E1-979BE768D452}">
   <dimension ref="A1:M54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B29" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="M56" sqref="M56"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J36" sqref="J36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="13.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.625" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21" customWidth="1"/>
-    <col min="7" max="7" width="15.25" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="11.625" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="10.625" style="8" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="21" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="15.25" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="11.25" style="8" bestFit="1" customWidth="1"/>
     <col min="9" max="12" width="20" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="15.25" bestFit="1" customWidth="1"/>
   </cols>
@@ -1706,7 +1706,7 @@
         <v>76</v>
       </c>
       <c r="J21" s="3">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="K21" s="9" t="s">
         <v>81</v>
@@ -1788,7 +1788,7 @@
         <v>76</v>
       </c>
       <c r="J23" s="4">
-        <v>0.2</v>
+        <v>2</v>
       </c>
       <c r="K23" s="9" t="s">
         <v>81</v>
@@ -2034,7 +2034,7 @@
         <v>76</v>
       </c>
       <c r="J29" s="4">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="K29" s="9" t="s">
         <v>83</v>
@@ -2075,7 +2075,7 @@
         <v>76</v>
       </c>
       <c r="J30" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K30" s="9" t="s">
         <v>83</v>
@@ -2116,7 +2116,7 @@
         <v>76</v>
       </c>
       <c r="J31" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K31" s="9" t="s">
         <v>83</v>
@@ -2157,7 +2157,7 @@
         <v>76</v>
       </c>
       <c r="J32" s="4">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="K32" s="9" t="s">
         <v>83</v>
@@ -2198,7 +2198,7 @@
         <v>76</v>
       </c>
       <c r="J33" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K33" s="9" t="s">
         <v>83</v>
@@ -2239,7 +2239,7 @@
         <v>76</v>
       </c>
       <c r="J34" s="4">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="K34" s="9" t="s">
         <v>83</v>
@@ -2280,7 +2280,7 @@
         <v>76</v>
       </c>
       <c r="J35" s="4">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="K35" s="9" t="s">
         <v>83</v>
@@ -2321,7 +2321,7 @@
         <v>76</v>
       </c>
       <c r="J36" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K36" s="9" t="s">
         <v>83</v>

--- a/기획서/Item Table.xlsx
+++ b/기획서/Item Table.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\addmin\Desktop\Unity\LCBD\기획서\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\경훈\Desktop\창동LCBD\LCBD\기획서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35DA5BA7-50D1-4511-BCCF-047B018BEE1C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C93D5AA-29FF-46FD-946C-D9CC7AECD226}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3390" yWindow="2100" windowWidth="18810" windowHeight="12720" xr2:uid="{CF8D6227-ACBF-482D-9E34-FA8B4846D78F}"/>
+    <workbookView xWindow="-1515" yWindow="780" windowWidth="17835" windowHeight="13365" xr2:uid="{CF8D6227-ACBF-482D-9E34-FA8B4846D78F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,17 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
@@ -65,15 +76,9 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>뿅망치</t>
-  </si>
-  <si>
     <t>베개</t>
   </si>
   <si>
-    <t>사탕</t>
-  </si>
-  <si>
     <t>모래 뭉치</t>
   </si>
   <si>
@@ -137,36 +142,18 @@
     <t>커피</t>
   </si>
   <si>
-    <t>금반지</t>
-  </si>
-  <si>
     <t>돋보기 안경</t>
   </si>
   <si>
     <t>우유</t>
   </si>
   <si>
-    <t>청양고추</t>
-  </si>
-  <si>
     <t>한약</t>
   </si>
   <si>
     <t>멸치</t>
   </si>
   <si>
-    <t>당근</t>
-  </si>
-  <si>
-    <t>빨간버섯</t>
-  </si>
-  <si>
-    <t>초록버섯</t>
-  </si>
-  <si>
-    <t>노란버섯</t>
-  </si>
-  <si>
     <t>검은버섯</t>
   </si>
   <si>
@@ -191,12 +178,6 @@
     <t>사진</t>
   </si>
   <si>
-    <t>열쇠</t>
-  </si>
-  <si>
-    <t>동전</t>
-  </si>
-  <si>
     <t>동전뭉치</t>
   </si>
   <si>
@@ -373,6 +354,46 @@
   </si>
   <si>
     <t>Item_price</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>당근O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사탕O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뿅망치O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>청양고추O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>빨간버섯O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초록버섯O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>노란버섯O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>금반지O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동전O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>열쇠O</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -541,9 +562,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -581,7 +602,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -687,7 +708,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -829,7 +850,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -839,8 +860,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C14DBF2-6983-4963-98E1-979BE768D452}">
   <dimension ref="A1:M54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J36" sqref="J36"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -874,28 +895,28 @@
         <v>3</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="J1" s="7" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="L1" s="7" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -903,7 +924,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>11</v>
+        <v>95</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>6</v>
@@ -912,25 +933,25 @@
         <v>7</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="J2" s="6">
         <v>0</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="L2" s="9">
         <v>0</v>
@@ -944,7 +965,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>5</v>
@@ -953,25 +974,25 @@
         <v>7</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="J3" s="6">
         <v>0</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="L3" s="9">
         <v>0</v>
@@ -985,7 +1006,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>13</v>
+        <v>94</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>5</v>
@@ -994,25 +1015,25 @@
         <v>7</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="J4" s="3">
         <v>2</v>
       </c>
       <c r="K4" s="9" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="L4" s="9">
         <v>0</v>
@@ -1026,7 +1047,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>5</v>
@@ -1035,25 +1056,25 @@
         <v>7</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="J5" s="4">
         <v>1</v>
       </c>
       <c r="K5" s="9" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="L5" s="9">
         <v>0</v>
@@ -1067,7 +1088,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>4</v>
@@ -1076,25 +1097,25 @@
         <v>7</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="J6" s="6">
         <v>0</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="L6" s="9">
         <v>0</v>
@@ -1108,7 +1129,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>6</v>
@@ -1117,25 +1138,25 @@
         <v>7</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="J7" s="6">
         <v>0</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="L7" s="9">
         <v>0</v>
@@ -1149,7 +1170,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>5</v>
@@ -1158,25 +1179,25 @@
         <v>7</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="J8" s="3">
         <v>3</v>
       </c>
       <c r="K8" s="9" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="L8" s="9">
         <v>0</v>
@@ -1190,7 +1211,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>5</v>
@@ -1199,25 +1220,25 @@
         <v>7</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="J9" s="4">
         <v>2</v>
       </c>
       <c r="K9" s="9" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="L9" s="9">
         <v>0</v>
@@ -1231,7 +1252,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>5</v>
@@ -1240,25 +1261,25 @@
         <v>7</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="J10" s="6">
         <v>0</v>
       </c>
       <c r="K10" s="6" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="L10" s="9">
         <v>0</v>
@@ -1272,7 +1293,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>4</v>
@@ -1281,25 +1302,25 @@
         <v>7</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="J11" s="6">
         <v>0</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="L11" s="9">
         <v>0</v>
@@ -1313,7 +1334,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>4</v>
@@ -1322,25 +1343,25 @@
         <v>7</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="J12" s="6">
         <v>0</v>
       </c>
       <c r="K12" s="6" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="L12" s="9">
         <v>0</v>
@@ -1354,7 +1375,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>6</v>
@@ -1363,25 +1384,25 @@
         <v>7</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="J13" s="6">
         <v>0</v>
       </c>
       <c r="K13" s="6" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="L13" s="9">
         <v>0</v>
@@ -1395,7 +1416,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>5</v>
@@ -1404,25 +1425,25 @@
         <v>7</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="J14" s="6">
         <v>0</v>
       </c>
       <c r="K14" s="6" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="L14" s="9">
         <v>0</v>
@@ -1436,7 +1457,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>5</v>
@@ -1445,25 +1466,25 @@
         <v>7</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="J15" s="6">
         <v>0</v>
       </c>
       <c r="K15" s="6" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="L15" s="9">
         <v>0</v>
@@ -1477,7 +1498,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>5</v>
@@ -1486,25 +1507,25 @@
         <v>7</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="H16" s="9" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="J16" s="3">
         <v>4</v>
       </c>
       <c r="K16" s="9" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="L16" s="9">
         <v>0</v>
@@ -1518,7 +1539,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>5</v>
@@ -1527,25 +1548,25 @@
         <v>7</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="H17" s="9" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="J17" s="4">
         <v>3</v>
       </c>
       <c r="K17" s="9" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="L17" s="9">
         <v>0</v>
@@ -1559,7 +1580,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>5</v>
@@ -1568,25 +1589,25 @@
         <v>7</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="I18" s="6" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="J18" s="6">
         <v>0</v>
       </c>
       <c r="K18" s="6" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="L18" s="9">
         <v>0</v>
@@ -1600,7 +1621,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>6</v>
@@ -1609,25 +1630,25 @@
         <v>7</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="J19" s="6">
         <v>0</v>
       </c>
       <c r="K19" s="6" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="L19" s="9">
         <v>0</v>
@@ -1641,7 +1662,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>5</v>
@@ -1650,25 +1671,25 @@
         <v>7</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="I20" s="6" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="J20" s="6">
         <v>0</v>
       </c>
       <c r="K20" s="6" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="L20" s="9">
         <v>0</v>
@@ -1682,7 +1703,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>6</v>
@@ -1691,25 +1712,25 @@
         <v>7</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="H21" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="I21" s="3" t="s">
         <v>66</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>76</v>
       </c>
       <c r="J21" s="3">
         <v>0.2</v>
       </c>
       <c r="K21" s="9" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="L21" s="9">
         <v>0</v>
@@ -1723,7 +1744,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>5</v>
@@ -1732,25 +1753,25 @@
         <v>7</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="I22" s="6" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="J22" s="6">
         <v>0</v>
       </c>
       <c r="K22" s="6" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="L22" s="9">
         <v>0</v>
@@ -1764,7 +1785,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>6</v>
@@ -1773,25 +1794,25 @@
         <v>7</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="H23" s="9" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="J23" s="4">
         <v>2</v>
       </c>
       <c r="K23" s="9" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="L23" s="9">
         <v>0</v>
@@ -1805,7 +1826,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>6</v>
@@ -1814,25 +1835,25 @@
         <v>7</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="I24" s="6" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="J24" s="6">
         <v>0</v>
       </c>
       <c r="K24" s="6" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="L24" s="9">
         <v>0</v>
@@ -1846,7 +1867,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>6</v>
@@ -1855,25 +1876,25 @@
         <v>7</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="I25" s="6" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="J25" s="6">
         <v>0</v>
       </c>
       <c r="K25" s="6" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="L25" s="9">
         <v>0</v>
@@ -1887,7 +1908,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>35</v>
+        <v>100</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>4</v>
@@ -1896,25 +1917,25 @@
         <v>7</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="I26" s="6" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="J26" s="6">
         <v>0</v>
       </c>
       <c r="K26" s="6" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="L26" s="9">
         <v>0</v>
@@ -1928,7 +1949,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>5</v>
@@ -1937,25 +1958,25 @@
         <v>7</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="H27" s="6" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="I27" s="6" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="J27" s="6">
         <v>0</v>
       </c>
       <c r="K27" s="6" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="L27" s="9">
         <v>0</v>
@@ -1969,7 +1990,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>5</v>
@@ -1978,25 +1999,25 @@
         <v>7</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="H28" s="9" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="J28" s="3">
         <v>10</v>
       </c>
       <c r="K28" s="9" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="L28" s="9">
         <v>0</v>
@@ -2010,7 +2031,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>38</v>
+        <v>96</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>5</v>
@@ -2019,25 +2040,25 @@
         <v>7</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="H29" s="9" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="J29" s="4">
         <v>1</v>
       </c>
       <c r="K29" s="9" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="L29" s="9">
         <v>15</v>
@@ -2051,7 +2072,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>6</v>
@@ -2060,25 +2081,25 @@
         <v>7</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="H30" s="9" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="J30" s="4">
         <v>2</v>
       </c>
       <c r="K30" s="9" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="L30" s="9">
         <v>15</v>
@@ -2092,7 +2113,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>5</v>
@@ -2101,25 +2122,25 @@
         <v>7</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="H31" s="9" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="J31" s="4">
         <v>1</v>
       </c>
       <c r="K31" s="9" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="L31" s="9">
         <v>15</v>
@@ -2133,7 +2154,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>41</v>
+        <v>93</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>5</v>
@@ -2142,25 +2163,25 @@
         <v>7</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="F32" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="H32" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="G32" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="H32" s="9" t="s">
-        <v>69</v>
-      </c>
       <c r="I32" s="4" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="J32" s="4">
         <v>0.3</v>
       </c>
       <c r="K32" s="9" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="L32" s="9">
         <v>15</v>
@@ -2174,7 +2195,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>42</v>
+        <v>97</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>5</v>
@@ -2183,25 +2204,25 @@
         <v>7</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="G33" s="6" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="H33" s="9" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="I33" s="4" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="J33" s="4">
         <v>1</v>
       </c>
       <c r="K33" s="9" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="L33" s="9">
         <v>15</v>
@@ -2215,7 +2236,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>43</v>
+        <v>98</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>5</v>
@@ -2224,25 +2245,25 @@
         <v>7</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="H34" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="I34" s="4" t="s">
         <v>66</v>
-      </c>
-      <c r="I34" s="4" t="s">
-        <v>76</v>
       </c>
       <c r="J34" s="4">
         <v>0.3</v>
       </c>
       <c r="K34" s="9" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="L34" s="9">
         <v>15</v>
@@ -2256,7 +2277,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>44</v>
+        <v>99</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>5</v>
@@ -2265,25 +2286,25 @@
         <v>7</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="H35" s="9" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="I35" s="4" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="J35" s="4">
         <v>0.3</v>
       </c>
       <c r="K35" s="9" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="L35" s="9">
         <v>15</v>
@@ -2297,7 +2318,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>6</v>
@@ -2306,25 +2327,25 @@
         <v>7</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="H36" s="9" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="J36" s="3">
         <v>1</v>
       </c>
       <c r="K36" s="9" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="L36" s="9">
         <v>15</v>
@@ -2338,7 +2359,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>4</v>
@@ -2347,25 +2368,25 @@
         <v>7</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H37" s="9" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="I37" s="4" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="J37" s="4">
         <v>0</v>
       </c>
       <c r="K37" s="9" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="L37" s="9">
         <v>10</v>
@@ -2379,7 +2400,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>4</v>
@@ -2388,25 +2409,25 @@
         <v>8</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="H38" s="9" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="I38" s="4" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="J38" s="4">
         <v>0</v>
       </c>
       <c r="K38" s="4" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="L38" s="9">
         <v>0</v>
@@ -2420,7 +2441,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>4</v>
@@ -2429,25 +2450,25 @@
         <v>8</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="G39" s="9" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="H39" s="9" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="I39" s="9" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="J39" s="9">
         <v>0</v>
       </c>
       <c r="K39" s="9" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="L39" s="9">
         <v>0</v>
@@ -2461,7 +2482,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>4</v>
@@ -2470,25 +2491,25 @@
         <v>8</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="F40" s="6" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="G40" s="9" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="H40" s="9" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="I40" s="9" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="J40" s="9">
         <v>0</v>
       </c>
       <c r="K40" s="9" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="L40" s="9">
         <v>0</v>
@@ -2502,7 +2523,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>4</v>
@@ -2511,25 +2532,25 @@
         <v>8</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="G41" s="9" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="H41" s="9" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="I41" s="9" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="J41" s="9">
         <v>0</v>
       </c>
       <c r="K41" s="9" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="L41" s="9">
         <v>0</v>
@@ -2543,7 +2564,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>4</v>
@@ -2552,25 +2573,25 @@
         <v>8</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="G42" s="9" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="H42" s="9" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="I42" s="9" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="J42" s="9">
         <v>0</v>
       </c>
       <c r="K42" s="9" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="L42" s="9">
         <v>0</v>
@@ -2584,7 +2605,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>4</v>
@@ -2593,25 +2614,25 @@
         <v>8</v>
       </c>
       <c r="E43" s="9" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F43" s="6" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="G43" s="9" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="H43" s="9" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="I43" s="9" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="J43" s="9">
         <v>0</v>
       </c>
       <c r="K43" s="9" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="L43" s="9">
         <v>0</v>
@@ -2625,7 +2646,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>53</v>
+        <v>102</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>5</v>
@@ -2634,25 +2655,25 @@
         <v>9</v>
       </c>
       <c r="E44" s="9" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="F44" s="6" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="H44" s="9" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="I44" s="3" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="J44" s="3">
         <v>0</v>
       </c>
       <c r="K44" s="9" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="L44" s="9">
         <v>0</v>
@@ -2666,7 +2687,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>54</v>
+        <v>101</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>5</v>
@@ -2675,25 +2696,25 @@
         <v>9</v>
       </c>
       <c r="E45" s="9" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="F45" s="6" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="H45" s="9" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="I45" s="4" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="J45" s="4">
         <v>1</v>
       </c>
       <c r="K45" s="9" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="L45" s="9">
         <v>0</v>
@@ -2707,7 +2728,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>5</v>
@@ -2716,25 +2737,25 @@
         <v>9</v>
       </c>
       <c r="E46" s="9" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="F46" s="6" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="H46" s="9" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="I46" s="4" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="J46" s="4">
         <v>10</v>
       </c>
       <c r="K46" s="9" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="L46" s="9">
         <v>0</v>
@@ -2748,7 +2769,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>5</v>
@@ -2757,25 +2778,25 @@
         <v>9</v>
       </c>
       <c r="E47" s="9" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="H47" s="9" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="I47" s="4" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="J47" s="4">
         <v>20</v>
       </c>
       <c r="K47" s="9" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="L47" s="9">
         <v>0</v>
@@ -2789,7 +2810,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>6</v>
@@ -2798,25 +2819,25 @@
         <v>9</v>
       </c>
       <c r="E48" s="9" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="F48" s="6" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="H48" s="9" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="I48" s="4" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="J48" s="4">
         <v>40</v>
       </c>
       <c r="K48" s="9" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="L48" s="9">
         <v>0</v>
@@ -2830,37 +2851,37 @@
         <v>48</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="E49" s="9" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="F49" s="6" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="G49" s="9" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="H49" s="9" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="I49" s="9" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="J49" s="9" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="K49" s="9" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="L49" s="9" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="M49" s="6">
         <v>0</v>
@@ -2871,37 +2892,37 @@
         <v>49</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="E50" s="9" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="F50" s="6" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="G50" s="9" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="H50" s="9" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="I50" s="9" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="J50" s="9" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="K50" s="9" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="L50" s="9" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="M50" s="6">
         <v>0</v>
@@ -2912,37 +2933,37 @@
         <v>50</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="E51" s="9" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="F51" s="6" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="G51" s="9" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="H51" s="9" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="I51" s="9" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="J51" s="9" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="K51" s="9" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="L51" s="9" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="M51" s="6">
         <v>0</v>
@@ -2953,37 +2974,37 @@
         <v>51</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="E52" s="9" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="F52" s="6" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="G52" s="9" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="H52" s="9" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="I52" s="9" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="J52" s="9" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="K52" s="9" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="L52" s="9" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="M52" s="6">
         <v>0</v>
@@ -2994,37 +3015,37 @@
         <v>52</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="E53" s="9" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="F53" s="6" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="G53" s="9" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="H53" s="9" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="I53" s="9" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="J53" s="9" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="K53" s="9" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="L53" s="9" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="M53" s="6">
         <v>0</v>
@@ -3035,37 +3056,37 @@
         <v>53</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="E54" s="9" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="F54" s="6" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="G54" s="9" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="H54" s="9" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="I54" s="9" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="J54" s="9" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="K54" s="9" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="L54" s="9" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="M54" s="6">
         <v>0</v>

--- a/기획서/Item Table.xlsx
+++ b/기획서/Item Table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\경훈\Desktop\창동LCBD\LCBD\기획서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C93D5AA-29FF-46FD-946C-D9CC7AECD226}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC075570-6EB8-4A64-83B9-4605D0258F8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-1515" yWindow="780" windowWidth="17835" windowHeight="13365" xr2:uid="{CF8D6227-ACBF-482D-9E34-FA8B4846D78F}"/>
+    <workbookView xWindow="-285" yWindow="630" windowWidth="17835" windowHeight="13365" xr2:uid="{CF8D6227-ACBF-482D-9E34-FA8B4846D78F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -76,18 +76,9 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>베개</t>
-  </si>
-  <si>
-    <t>모래 뭉치</t>
-  </si>
-  <si>
     <t>스케이트보드</t>
   </si>
   <si>
-    <t>가방</t>
-  </si>
-  <si>
     <t>지우개</t>
   </si>
   <si>
@@ -106,15 +97,9 @@
     <t>비타민</t>
   </si>
   <si>
-    <t>지팡이</t>
-  </si>
-  <si>
     <t>신문뭉치</t>
   </si>
   <si>
-    <t>화투</t>
-  </si>
-  <si>
     <t>바둑알</t>
   </si>
   <si>
@@ -127,9 +112,6 @@
     <t>머리핀</t>
   </si>
   <si>
-    <t>삑삑이신발</t>
-  </si>
-  <si>
     <t>명찰</t>
   </si>
   <si>
@@ -139,261 +121,292 @@
     <t>사원증</t>
   </si>
   <si>
-    <t>커피</t>
-  </si>
-  <si>
-    <t>돋보기 안경</t>
-  </si>
-  <si>
-    <t>우유</t>
-  </si>
-  <si>
     <t>한약</t>
   </si>
   <si>
-    <t>멸치</t>
-  </si>
-  <si>
     <t>검은버섯</t>
   </si>
   <si>
     <t>산삼</t>
   </si>
   <si>
-    <t>일기장 페이지</t>
-  </si>
-  <si>
     <t>오르골</t>
   </si>
   <si>
-    <t>타임캡슐</t>
+    <t>이력서</t>
+  </si>
+  <si>
+    <t>사진</t>
+  </si>
+  <si>
+    <t>동전뭉치</t>
+  </si>
+  <si>
+    <t>지폐</t>
+  </si>
+  <si>
+    <t>지폐뭉치</t>
+  </si>
+  <si>
+    <t>Item_Image_Path</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이미지 경로</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect_maintain_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect_target</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enhance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attack_speed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>speed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect_info</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>random</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>range</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>defense</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>endurance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ending_key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>money</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>open_stage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>purchace</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>self</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>object</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>npc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect_figures</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect_activate_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maintain</t>
+  </si>
+  <si>
+    <t>maintain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>once</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>baby</t>
+  </si>
+  <si>
+    <t>chlid</t>
+  </si>
+  <si>
+    <t>young</t>
+  </si>
+  <si>
+    <t>adult</t>
+  </si>
+  <si>
+    <t>old</t>
+  </si>
+  <si>
+    <t>all</t>
+  </si>
+  <si>
+    <t>unbeatable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attack</t>
+  </si>
+  <si>
+    <t>health</t>
+  </si>
+  <si>
+    <t>stamina</t>
+  </si>
+  <si>
+    <t>구강기 인격조각</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>항문기 인격조각</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>남근기 인격조각</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>잠복기 인격조각</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>성장기 인격조각</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>생식기 인격조각</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unique</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item_price</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>당근O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사탕O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뿅망치O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>청양고추O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>빨간버섯O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초록버섯O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>노란버섯O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>금반지O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동전O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>열쇠O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가방O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화투O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일기장 페이지O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>타임캡슐O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>성적표</t>
-  </si>
-  <si>
-    <t>이력서</t>
-  </si>
-  <si>
-    <t>사진</t>
-  </si>
-  <si>
-    <t>동전뭉치</t>
-  </si>
-  <si>
-    <t>지폐</t>
-  </si>
-  <si>
-    <t>지폐뭉치</t>
-  </si>
-  <si>
-    <t>Item_Image_Path</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이미지 경로</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>effect_type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>effect_maintain_time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>null</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>effect_target</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>enhance</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>attack_speed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>speed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>effect_info</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>random</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>range</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>defense</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>endurance</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ending_key</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>money</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>open_stage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>purchace</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>self</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>object</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>npc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>effect_figures</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>effect_activate_type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>maintain</t>
-  </si>
-  <si>
-    <t>maintain</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>once</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>baby</t>
-  </si>
-  <si>
-    <t>chlid</t>
-  </si>
-  <si>
-    <t>young</t>
-  </si>
-  <si>
-    <t>adult</t>
-  </si>
-  <si>
-    <t>old</t>
-  </si>
-  <si>
-    <t>all</t>
-  </si>
-  <si>
-    <t>unbeatable</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>attack</t>
-  </si>
-  <si>
-    <t>health</t>
-  </si>
-  <si>
-    <t>stamina</t>
-  </si>
-  <si>
-    <t>구강기 인격조각</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>항문기 인격조각</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>남근기 인격조각</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>잠복기 인격조각</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>성장기 인격조각</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>생식기 인격조각</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>unique</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>status</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Item_price</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>당근O</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사탕O</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>뿅망치O</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>청양고추O</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>빨간버섯O</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>초록버섯O</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>노란버섯O</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>금반지O</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>동전O</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>열쇠O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>커피O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우유O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>멸치O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>돋보기 안경O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지팡이O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모래 뭉치O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>베개O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>삑삑이신발O</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -860,8 +873,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C14DBF2-6983-4963-98E1-979BE768D452}">
   <dimension ref="A1:M54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -895,28 +908,28 @@
         <v>3</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="H1" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K1" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="I1" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="J1" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="K1" s="7" t="s">
-        <v>70</v>
-      </c>
       <c r="L1" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -924,7 +937,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>6</v>
@@ -933,25 +946,25 @@
         <v>7</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="J2" s="6">
         <v>0</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="L2" s="9">
         <v>0</v>
@@ -965,7 +978,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>11</v>
+        <v>101</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>5</v>
@@ -974,25 +987,25 @@
         <v>7</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="J3" s="6">
         <v>0</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="L3" s="9">
         <v>0</v>
@@ -1006,7 +1019,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>5</v>
@@ -1015,25 +1028,25 @@
         <v>7</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="J4" s="3">
         <v>2</v>
       </c>
       <c r="K4" s="9" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="L4" s="9">
         <v>0</v>
@@ -1047,7 +1060,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>5</v>
@@ -1056,25 +1069,25 @@
         <v>7</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="J5" s="4">
         <v>1</v>
       </c>
       <c r="K5" s="9" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="L5" s="9">
         <v>0</v>
@@ -1088,7 +1101,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>4</v>
@@ -1097,25 +1110,25 @@
         <v>7</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="J6" s="6">
         <v>0</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="L6" s="9">
         <v>0</v>
@@ -1129,7 +1142,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>14</v>
+        <v>90</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>6</v>
@@ -1138,25 +1151,25 @@
         <v>7</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="J7" s="6">
         <v>0</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="L7" s="9">
         <v>0</v>
@@ -1170,7 +1183,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>5</v>
@@ -1179,25 +1192,25 @@
         <v>7</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="J8" s="3">
         <v>3</v>
       </c>
       <c r="K8" s="9" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="L8" s="9">
         <v>0</v>
@@ -1211,7 +1224,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>5</v>
@@ -1220,25 +1233,25 @@
         <v>7</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="J9" s="4">
         <v>2</v>
       </c>
       <c r="K9" s="9" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="L9" s="9">
         <v>0</v>
@@ -1252,7 +1265,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>5</v>
@@ -1261,25 +1274,25 @@
         <v>7</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="J10" s="6">
         <v>0</v>
       </c>
       <c r="K10" s="6" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="L10" s="9">
         <v>0</v>
@@ -1293,7 +1306,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>4</v>
@@ -1302,25 +1315,25 @@
         <v>7</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="J11" s="6">
         <v>0</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="L11" s="9">
         <v>0</v>
@@ -1334,7 +1347,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>4</v>
@@ -1343,25 +1356,25 @@
         <v>7</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="J12" s="6">
         <v>0</v>
       </c>
       <c r="K12" s="6" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="L12" s="9">
         <v>0</v>
@@ -1375,7 +1388,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>6</v>
@@ -1384,25 +1397,25 @@
         <v>7</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="J13" s="6">
         <v>0</v>
       </c>
       <c r="K13" s="6" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="L13" s="9">
         <v>0</v>
@@ -1416,7 +1429,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>21</v>
+        <v>99</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>5</v>
@@ -1425,25 +1438,25 @@
         <v>7</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="J14" s="6">
         <v>0</v>
       </c>
       <c r="K14" s="6" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="L14" s="9">
         <v>0</v>
@@ -1457,7 +1470,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>5</v>
@@ -1466,25 +1479,25 @@
         <v>7</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="J15" s="6">
         <v>0</v>
       </c>
       <c r="K15" s="6" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="L15" s="9">
         <v>0</v>
@@ -1498,7 +1511,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>23</v>
+        <v>91</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>5</v>
@@ -1507,25 +1520,25 @@
         <v>7</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="H16" s="9" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="J16" s="3">
         <v>4</v>
       </c>
       <c r="K16" s="9" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="L16" s="9">
         <v>0</v>
@@ -1539,7 +1552,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>5</v>
@@ -1548,25 +1561,25 @@
         <v>7</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="H17" s="9" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="J17" s="4">
         <v>3</v>
       </c>
       <c r="K17" s="9" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="L17" s="9">
         <v>0</v>
@@ -1580,7 +1593,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>5</v>
@@ -1589,25 +1602,25 @@
         <v>7</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="I18" s="6" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="J18" s="6">
         <v>0</v>
       </c>
       <c r="K18" s="6" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="L18" s="9">
         <v>0</v>
@@ -1621,7 +1634,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>6</v>
@@ -1630,25 +1643,25 @@
         <v>7</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="J19" s="6">
         <v>0</v>
       </c>
       <c r="K19" s="6" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="L19" s="9">
         <v>0</v>
@@ -1662,7 +1675,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>5</v>
@@ -1671,25 +1684,25 @@
         <v>7</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="I20" s="6" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="J20" s="6">
         <v>0</v>
       </c>
       <c r="K20" s="6" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="L20" s="9">
         <v>0</v>
@@ -1703,7 +1716,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>28</v>
+        <v>102</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>6</v>
@@ -1712,25 +1725,25 @@
         <v>7</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="H21" s="10" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="J21" s="3">
         <v>0.2</v>
       </c>
       <c r="K21" s="9" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="L21" s="9">
         <v>0</v>
@@ -1744,7 +1757,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>5</v>
@@ -1753,25 +1766,25 @@
         <v>7</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="I22" s="6" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="J22" s="6">
         <v>0</v>
       </c>
       <c r="K22" s="6" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="L22" s="9">
         <v>0</v>
@@ -1785,7 +1798,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>6</v>
@@ -1794,25 +1807,25 @@
         <v>7</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="H23" s="9" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="J23" s="4">
         <v>2</v>
       </c>
       <c r="K23" s="9" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="L23" s="9">
         <v>0</v>
@@ -1826,7 +1839,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>6</v>
@@ -1835,25 +1848,25 @@
         <v>7</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="I24" s="6" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="J24" s="6">
         <v>0</v>
       </c>
       <c r="K24" s="6" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="L24" s="9">
         <v>0</v>
@@ -1867,7 +1880,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>32</v>
+        <v>95</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>6</v>
@@ -1876,25 +1889,25 @@
         <v>7</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="I25" s="6" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="J25" s="6">
         <v>0</v>
       </c>
       <c r="K25" s="6" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="L25" s="9">
         <v>0</v>
@@ -1908,7 +1921,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>4</v>
@@ -1917,25 +1930,25 @@
         <v>7</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="I26" s="6" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="J26" s="6">
         <v>0</v>
       </c>
       <c r="K26" s="6" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="L26" s="9">
         <v>0</v>
@@ -1949,7 +1962,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>33</v>
+        <v>98</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>5</v>
@@ -1958,25 +1971,25 @@
         <v>7</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="H27" s="6" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="I27" s="6" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="J27" s="6">
         <v>0</v>
       </c>
       <c r="K27" s="6" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="L27" s="9">
         <v>0</v>
@@ -1990,7 +2003,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>34</v>
+        <v>96</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>5</v>
@@ -1999,25 +2012,25 @@
         <v>7</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="H28" s="9" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="J28" s="3">
         <v>10</v>
       </c>
       <c r="K28" s="9" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="L28" s="9">
         <v>0</v>
@@ -2031,7 +2044,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>5</v>
@@ -2040,25 +2053,25 @@
         <v>7</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="H29" s="9" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="J29" s="4">
         <v>1</v>
       </c>
       <c r="K29" s="9" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="L29" s="9">
         <v>15</v>
@@ -2072,7 +2085,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>6</v>
@@ -2081,25 +2094,25 @@
         <v>7</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="H30" s="9" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="J30" s="4">
         <v>2</v>
       </c>
       <c r="K30" s="9" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="L30" s="9">
         <v>15</v>
@@ -2113,7 +2126,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>36</v>
+        <v>97</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>5</v>
@@ -2122,25 +2135,25 @@
         <v>7</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="H31" s="9" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="J31" s="4">
         <v>1</v>
       </c>
       <c r="K31" s="9" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="L31" s="9">
         <v>15</v>
@@ -2154,7 +2167,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>5</v>
@@ -2163,25 +2176,25 @@
         <v>7</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="H32" s="9" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="J32" s="4">
         <v>0.3</v>
       </c>
       <c r="K32" s="9" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="L32" s="9">
         <v>15</v>
@@ -2195,7 +2208,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>5</v>
@@ -2204,25 +2217,25 @@
         <v>7</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="G33" s="6" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="H33" s="9" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="I33" s="4" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="J33" s="4">
         <v>1</v>
       </c>
       <c r="K33" s="9" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="L33" s="9">
         <v>15</v>
@@ -2236,7 +2249,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>5</v>
@@ -2245,25 +2258,25 @@
         <v>7</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="H34" s="10" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="I34" s="4" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="J34" s="4">
         <v>0.3</v>
       </c>
       <c r="K34" s="9" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="L34" s="9">
         <v>15</v>
@@ -2277,7 +2290,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>5</v>
@@ -2286,25 +2299,25 @@
         <v>7</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="H35" s="9" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="I35" s="4" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="J35" s="4">
         <v>0.3</v>
       </c>
       <c r="K35" s="9" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="L35" s="9">
         <v>15</v>
@@ -2318,7 +2331,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>6</v>
@@ -2327,25 +2340,25 @@
         <v>7</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="H36" s="9" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="J36" s="3">
         <v>1</v>
       </c>
       <c r="K36" s="9" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="L36" s="9">
         <v>15</v>
@@ -2359,7 +2372,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>4</v>
@@ -2368,25 +2381,25 @@
         <v>7</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="H37" s="9" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="I37" s="4" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="J37" s="4">
         <v>0</v>
       </c>
       <c r="K37" s="9" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="L37" s="9">
         <v>10</v>
@@ -2400,7 +2413,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>39</v>
+        <v>92</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>4</v>
@@ -2409,25 +2422,25 @@
         <v>8</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="F38" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G38" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="G38" s="4" t="s">
-        <v>62</v>
-      </c>
       <c r="H38" s="9" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="I38" s="4" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="J38" s="4">
         <v>0</v>
       </c>
       <c r="K38" s="4" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="L38" s="9">
         <v>0</v>
@@ -2441,7 +2454,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>4</v>
@@ -2450,25 +2463,25 @@
         <v>8</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="G39" s="9" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="H39" s="9" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="I39" s="9" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="J39" s="9">
         <v>0</v>
       </c>
       <c r="K39" s="9" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="L39" s="9">
         <v>0</v>
@@ -2482,7 +2495,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>41</v>
+        <v>93</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>4</v>
@@ -2491,25 +2504,25 @@
         <v>8</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="F40" s="6" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="G40" s="9" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="H40" s="9" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="I40" s="9" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="J40" s="9">
         <v>0</v>
       </c>
       <c r="K40" s="9" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="L40" s="9">
         <v>0</v>
@@ -2523,7 +2536,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>42</v>
+        <v>94</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>4</v>
@@ -2532,25 +2545,25 @@
         <v>8</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="G41" s="9" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="H41" s="9" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="I41" s="9" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="J41" s="9">
         <v>0</v>
       </c>
       <c r="K41" s="9" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="L41" s="9">
         <v>0</v>
@@ -2564,7 +2577,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>4</v>
@@ -2573,25 +2586,25 @@
         <v>8</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="G42" s="9" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="H42" s="9" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="I42" s="9" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="J42" s="9">
         <v>0</v>
       </c>
       <c r="K42" s="9" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="L42" s="9">
         <v>0</v>
@@ -2605,7 +2618,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>4</v>
@@ -2614,25 +2627,25 @@
         <v>8</v>
       </c>
       <c r="E43" s="9" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="F43" s="6" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="G43" s="9" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="H43" s="9" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="I43" s="9" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="J43" s="9">
         <v>0</v>
       </c>
       <c r="K43" s="9" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="L43" s="9">
         <v>0</v>
@@ -2646,7 +2659,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>5</v>
@@ -2655,25 +2668,25 @@
         <v>9</v>
       </c>
       <c r="E44" s="9" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="F44" s="6" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="H44" s="9" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="I44" s="3" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="J44" s="3">
         <v>0</v>
       </c>
       <c r="K44" s="9" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="L44" s="9">
         <v>0</v>
@@ -2687,7 +2700,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>5</v>
@@ -2696,25 +2709,25 @@
         <v>9</v>
       </c>
       <c r="E45" s="9" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="F45" s="6" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="H45" s="9" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="I45" s="4" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="J45" s="4">
         <v>1</v>
       </c>
       <c r="K45" s="9" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="L45" s="9">
         <v>0</v>
@@ -2728,7 +2741,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>5</v>
@@ -2737,25 +2750,25 @@
         <v>9</v>
       </c>
       <c r="E46" s="9" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="F46" s="6" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="H46" s="9" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="I46" s="4" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="J46" s="4">
         <v>10</v>
       </c>
       <c r="K46" s="9" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="L46" s="9">
         <v>0</v>
@@ -2769,7 +2782,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>5</v>
@@ -2778,25 +2791,25 @@
         <v>9</v>
       </c>
       <c r="E47" s="9" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="H47" s="9" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="I47" s="4" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="J47" s="4">
         <v>20</v>
       </c>
       <c r="K47" s="9" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="L47" s="9">
         <v>0</v>
@@ -2810,7 +2823,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>6</v>
@@ -2819,25 +2832,25 @@
         <v>9</v>
       </c>
       <c r="E48" s="9" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="F48" s="6" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="H48" s="9" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="I48" s="4" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="J48" s="4">
         <v>40</v>
       </c>
       <c r="K48" s="9" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="L48" s="9">
         <v>0</v>
@@ -2851,37 +2864,37 @@
         <v>48</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="E49" s="9" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="F49" s="6" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="G49" s="9" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="H49" s="9" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="I49" s="9" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="J49" s="9" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="K49" s="9" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="L49" s="9" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="M49" s="6">
         <v>0</v>
@@ -2892,37 +2905,37 @@
         <v>49</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="E50" s="9" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="F50" s="6" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="G50" s="9" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="H50" s="9" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="I50" s="9" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="J50" s="9" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="K50" s="9" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="L50" s="9" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="M50" s="6">
         <v>0</v>
@@ -2933,37 +2946,37 @@
         <v>50</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="E51" s="9" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="F51" s="6" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="G51" s="9" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="H51" s="9" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="I51" s="9" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="J51" s="9" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="K51" s="9" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="L51" s="9" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="M51" s="6">
         <v>0</v>
@@ -2974,37 +2987,37 @@
         <v>51</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="E52" s="9" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="F52" s="6" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="G52" s="9" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="H52" s="9" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="I52" s="9" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="J52" s="9" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="K52" s="9" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="L52" s="9" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="M52" s="6">
         <v>0</v>
@@ -3015,37 +3028,37 @@
         <v>52</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="E53" s="9" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="F53" s="6" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="G53" s="9" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="H53" s="9" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="I53" s="9" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="J53" s="9" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="K53" s="9" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="L53" s="9" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="M53" s="6">
         <v>0</v>
@@ -3056,37 +3069,37 @@
         <v>53</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="E54" s="9" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="F54" s="6" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="G54" s="9" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="H54" s="9" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="I54" s="9" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="J54" s="9" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="K54" s="9" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="L54" s="9" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="M54" s="6">
         <v>0</v>

--- a/기획서/Item Table.xlsx
+++ b/기획서/Item Table.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\경훈\Desktop\창동LCBD\LCBD\기획서\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\addmin\Desktop\Unity\LCBD\기획서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC075570-6EB8-4A64-83B9-4605D0258F8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01219981-363E-4791-A1EF-178367FF5AAE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-285" yWindow="630" windowWidth="17835" windowHeight="13365" xr2:uid="{CF8D6227-ACBF-482D-9E34-FA8B4846D78F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CF8D6227-ACBF-482D-9E34-FA8B4846D78F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,17 +19,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -575,9 +564,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -615,7 +604,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -721,7 +710,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -863,7 +852,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -873,19 +862,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C14DBF2-6983-4963-98E1-979BE768D452}">
   <dimension ref="A1:M54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="M41" sqref="M41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="13.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="11.625" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="10.625" style="8" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="21" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="15.25" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.375" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.25" style="8" bestFit="1" customWidth="1"/>
     <col min="9" max="12" width="20" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="15.25" bestFit="1" customWidth="1"/>
@@ -2241,7 +2230,7 @@
         <v>15</v>
       </c>
       <c r="M33" s="6">
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="34" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2282,7 +2271,7 @@
         <v>15</v>
       </c>
       <c r="M34" s="6">
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="35" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2323,7 +2312,7 @@
         <v>15</v>
       </c>
       <c r="M35" s="6">
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="36" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2364,7 +2353,7 @@
         <v>15</v>
       </c>
       <c r="M36" s="6">
-        <v>0</v>
+        <v>55</v>
       </c>
     </row>
     <row r="37" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
